--- a/src/main/resources/com/training/sample/auto-approval-check-rule.xlsx
+++ b/src/main/resources/com/training/sample/auto-approval-check-rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamori/VSCode/WorkSpace/rhpam-handson/rhpam-handson-sample-pj/src/main/resources/com/training/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD30983-B7A2-B04E-A0DD-13E8E6E7FFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC95F060-FFCE-7748-951E-C24AA1D5E7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,13 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$項目名 $param</t>
-    <rPh sb="0" eb="3">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/* $param */</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -119,6 +112,10 @@
     <rPh sb="4" eb="6">
       <t>ハンテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>budget $param</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -711,7 +708,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="19" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -740,7 +737,7 @@
     </row>
     <row r="3" spans="1:4" ht="20" thickTop="1">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -771,13 +768,13 @@
     <row r="6" spans="1:4" ht="60" outlineLevel="1">
       <c r="A6" s="16"/>
       <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20">
@@ -785,39 +782,39 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20">
       <c r="A8" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20">
       <c r="A9" s="20"/>
       <c r="B9" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="9" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/com/training/sample/auto-approval-check-rule.xlsx
+++ b/src/main/resources/com/training/sample/auto-approval-check-rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamori/VSCode/WorkSpace/rhpam-handson/rhpam-handson-sample-pj/src/main/resources/com/training/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC95F060-FFCE-7748-951E-C24AA1D5E7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B75ADF5-DB92-3A4C-BA3C-8F2DDDC56852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31340" yWindow="3220" windowWidth="14620" windowHeight="12100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -707,15 +707,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="19" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="21.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="6" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="19.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="6" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16" style="6" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.83203125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="11.5" style="2"/>
@@ -765,7 +765,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="60" outlineLevel="1">
+    <row r="6" spans="1:4" ht="100" outlineLevel="1">
       <c r="A6" s="16"/>
       <c r="B6" s="8" t="s">
         <v>18</v>
